--- a/biology/Botanique/Calamagrostis_pseudophragmites/Calamagrostis_pseudophragmites.xlsx
+++ b/biology/Botanique/Calamagrostis_pseudophragmites/Calamagrostis_pseudophragmites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamagrostide faux phragmite, Calamagrostis faux phragmite, Calamagrostide faux Roseau
-Calamagrostis pseudophragmites est une espèce de plantes à fleurs de la famille des Poaceae et du genre Calamagrostis. Elle est connue en français sous les noms de Calamagrostide faux phragmite[1] ou Calamagrostide faux Roseau[2].
+Calamagrostis pseudophragmites est une espèce de plantes à fleurs de la famille des Poaceae et du genre Calamagrostis. Elle est connue en français sous les noms de Calamagrostide faux phragmite ou Calamagrostide faux Roseau.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Calamagrostide faux phragmite mesure entre 50 cm et 1 m de haut[3]. Il s'agit d'une plante à rhizome. Ses fleurs, de couleur violette[4], se présentent sous la forme de panicule.
-La période de floraison s'étend de mai à juillet[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Calamagrostide faux phragmite mesure entre 50 cm et 1 m de haut. Il s'agit d'une plante à rhizome. Ses fleurs, de couleur violette, se présentent sous la forme de panicule.
+La période de floraison s'étend de mai à juillet.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve cette plante sur l'ensemble du continent européen, dans les zones du continent asiatique située au nord de l'Himalaya ainsi qu'au Japon[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve cette plante sur l'ensemble du continent européen, dans les zones du continent asiatique située au nord de l'Himalaya ainsi qu'au Japon.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamagrostis pseudophragmites se développe entre 0 et 2000 m d'altitude[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamagrostis pseudophragmites se développe entre 0 et 2000 m d'altitude.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est décrite en premier en 1802 par le botaniste Koeler, qui la classe dans le genre Calamagrostis.
 </t>
